--- a/analysis/pre_gemini_data/participant 310/med.xlsx
+++ b/analysis/pre_gemini_data/participant 310/med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,117 +422,113 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condstte2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>exteranl</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>methoddacll2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>retrun2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>rreturn</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
@@ -590,27 +574,25 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19</v>
-      </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>23</v>
       </c>
@@ -621,19 +603,17 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -655,27 +635,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>207</v>
       </c>
@@ -686,19 +664,17 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="T4" t="n">
         <v>3</v>
@@ -720,27 +696,25 @@
         <v>1156.11</v>
       </c>
       <c r="D5" t="n">
-        <v>35805.91</v>
+        <v>28794.69</v>
       </c>
       <c r="E5" t="n">
-        <v>19233.46</v>
+        <v>15343.57</v>
       </c>
       <c r="F5" t="n">
-        <v>8382.48</v>
+        <v>7705.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4871.86</v>
+        <v>4673.68</v>
       </c>
       <c r="H5" t="n">
-        <v>8356.629999999999</v>
+        <v>6102.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5243.54</v>
+        <v>4665.48</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>165.24</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>54442.65</v>
       </c>
@@ -751,19 +725,17 @@
         <v>214.68</v>
       </c>
       <c r="O5" t="n">
-        <v>9413.889999999999</v>
+        <v>7216.66</v>
       </c>
       <c r="P5" t="n">
         <v>594.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>3212.39</v>
-      </c>
-      <c r="R5" t="n">
-        <v>214.68</v>
-      </c>
+        <v>2601.27</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>30794.15</v>
+        <v>24666.9</v>
       </c>
       <c r="T5" t="n">
         <v>809.22</v>
@@ -782,59 +754,55 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.54</v>
+        <v>1.18</v>
       </c>
       <c r="D6" t="n">
-        <v>16.58</v>
+        <v>29.35</v>
       </c>
       <c r="E6" t="n">
-        <v>8.91</v>
+        <v>15.64</v>
       </c>
       <c r="F6" t="n">
-        <v>3.88</v>
+        <v>7.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26</v>
+        <v>4.76</v>
       </c>
       <c r="H6" t="n">
-        <v>3.87</v>
+        <v>6.22</v>
       </c>
       <c r="I6" t="n">
-        <v>2.43</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.08</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>46.22</v>
       </c>
       <c r="M6" t="n">
-        <v>0.85</v>
+        <v>1.87</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="O6" t="n">
-        <v>4.36</v>
+        <v>7.35</v>
       </c>
       <c r="P6" t="n">
-        <v>0.28</v>
+        <v>0.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.1</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>14.26</v>
+        <v>25.14</v>
       </c>
       <c r="T6" t="n">
-        <v>0.37</v>
+        <v>0.82</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -850,27 +818,25 @@
         <v>578.05</v>
       </c>
       <c r="D7" t="n">
-        <v>284.17</v>
+        <v>282.3</v>
       </c>
       <c r="E7" t="n">
-        <v>270.89</v>
+        <v>273.99</v>
       </c>
       <c r="F7" t="n">
-        <v>335.3</v>
+        <v>335.01</v>
       </c>
       <c r="G7" t="n">
-        <v>347.99</v>
+        <v>359.51</v>
       </c>
       <c r="H7" t="n">
-        <v>253.23</v>
+        <v>265.32</v>
       </c>
       <c r="I7" t="n">
-        <v>436.96</v>
+        <v>424.13</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>165.24</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>263.01</v>
       </c>
@@ -881,19 +847,17 @@
         <v>214.68</v>
       </c>
       <c r="O7" t="n">
-        <v>392.25</v>
+        <v>343.65</v>
       </c>
       <c r="P7" t="n">
         <v>297.27</v>
       </c>
       <c r="Q7" t="n">
-        <v>401.55</v>
-      </c>
-      <c r="R7" t="n">
-        <v>214.68</v>
-      </c>
+        <v>371.61</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>285.13</v>
+        <v>312.24</v>
       </c>
       <c r="T7" t="n">
         <v>269.74</v>
@@ -933,9 +897,7 @@
         <v>165.12</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>165.24</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>8.68</v>
       </c>
@@ -954,9 +916,7 @@
       <c r="Q8" t="n">
         <v>1007.45</v>
       </c>
-      <c r="R8" t="n">
-        <v>214.68</v>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>445.94</v>
       </c>
@@ -968,56 +928,6 @@
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
